--- a/REGULAR/ACCOUNTING/LERIO, ROSEMARIE.xlsx
+++ b/REGULAR/ACCOUNTING/LERIO, ROSEMARIE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358911CB-96A4-4998-A40A-63A0E15762C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1FA7F2-17D6-4906-BBEC-D402B47B516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="189">
   <si>
     <t>PERIOD</t>
   </si>
@@ -607,6 +599,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>11/11,17/2022</t>
   </si>
 </sst>
 </file>
@@ -979,6 +974,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,12 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3389,9 +3384,9 @@
   <dimension ref="A2:K387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A360" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="B374" sqref="B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3413,64 +3408,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3496,18 +3491,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3570,7 +3565,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="20"/>
@@ -3651,7 +3646,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="60">
+      <c r="K13" s="48">
         <v>35871</v>
       </c>
     </row>
@@ -3695,7 +3690,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="60">
+      <c r="K15" s="48">
         <v>35922</v>
       </c>
     </row>
@@ -3864,7 +3859,7 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="20"/>
@@ -3985,7 +3980,7 @@
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="60">
+      <c r="K29" s="48">
         <v>36288</v>
       </c>
     </row>
@@ -4007,7 +4002,7 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="60">
+      <c r="K30" s="48">
         <v>36308</v>
       </c>
     </row>
@@ -4073,7 +4068,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="60">
+      <c r="K33" s="48">
         <v>36378</v>
       </c>
     </row>
@@ -4093,7 +4088,7 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="60">
+      <c r="K34" s="48">
         <v>36402</v>
       </c>
     </row>
@@ -4182,7 +4177,7 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="20"/>
@@ -4261,7 +4256,7 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="60">
+      <c r="K42" s="48">
         <v>36602</v>
       </c>
     </row>
@@ -4285,7 +4280,7 @@
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="60">
+      <c r="K43" s="48">
         <v>36635</v>
       </c>
     </row>
@@ -4311,7 +4306,7 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="60">
+      <c r="K44" s="48">
         <v>36672</v>
       </c>
     </row>
@@ -4441,7 +4436,7 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="60">
+      <c r="K50" s="48">
         <v>36836</v>
       </c>
     </row>
@@ -4467,7 +4462,7 @@
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="60">
+      <c r="K51" s="48">
         <v>36865</v>
       </c>
     </row>
@@ -4489,10 +4484,10 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="60"/>
+      <c r="K52" s="48"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="20"/>
@@ -4507,7 +4502,7 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="60"/>
+      <c r="K53" s="48"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
@@ -4571,7 +4566,7 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="60">
+      <c r="K56" s="48">
         <v>36952</v>
       </c>
     </row>
@@ -4593,7 +4588,7 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="60">
+      <c r="K57" s="48">
         <v>36973</v>
       </c>
     </row>
@@ -4699,7 +4694,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="60">
+      <c r="K62" s="48">
         <v>37133</v>
       </c>
     </row>
@@ -4725,7 +4720,7 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="60">
+      <c r="K63" s="48">
         <v>37159</v>
       </c>
     </row>
@@ -4751,7 +4746,7 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="60">
+      <c r="K64" s="48">
         <v>37188</v>
       </c>
     </row>
@@ -4800,7 +4795,7 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B67" s="20"/>
@@ -5057,7 +5052,7 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="60">
+      <c r="K78" s="48">
         <v>37580</v>
       </c>
     </row>
@@ -5086,7 +5081,7 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="59" t="s">
+      <c r="A80" s="47" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="20"/>
@@ -5235,7 +5230,7 @@
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="60">
+      <c r="K86" s="48">
         <v>37771</v>
       </c>
     </row>
@@ -5391,12 +5386,12 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="60">
+      <c r="K93" s="48">
         <v>37965</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="59" t="s">
+      <c r="A94" s="47" t="s">
         <v>76</v>
       </c>
       <c r="B94" s="20"/>
@@ -5411,7 +5406,7 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="60"/>
+      <c r="K94" s="48"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
@@ -5651,7 +5646,7 @@
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="60">
+      <c r="K104" s="48">
         <v>38273</v>
       </c>
     </row>
@@ -5671,7 +5666,7 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="60" t="s">
+      <c r="K105" s="48" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5720,7 +5715,7 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="59" t="s">
+      <c r="A108" s="47" t="s">
         <v>86</v>
       </c>
       <c r="B108" s="20"/>
@@ -5783,7 +5778,7 @@
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="60">
+      <c r="K110" s="48">
         <v>38399</v>
       </c>
     </row>
@@ -5805,7 +5800,7 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="60"/>
+      <c r="K111" s="48"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
@@ -5991,7 +5986,7 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="60">
+      <c r="K119" s="48">
         <v>38590</v>
       </c>
     </row>
@@ -6013,7 +6008,7 @@
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="60">
+      <c r="K120" s="48">
         <v>38593</v>
       </c>
     </row>
@@ -6033,7 +6028,7 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="60" t="s">
+      <c r="K121" s="48" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6055,7 +6050,7 @@
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="60"/>
+      <c r="K122" s="48"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
@@ -6166,7 +6161,7 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="59" t="s">
+      <c r="A128" s="47" t="s">
         <v>91</v>
       </c>
       <c r="B128" s="20"/>
@@ -6269,7 +6264,7 @@
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="60">
+      <c r="K132" s="48">
         <v>38856</v>
       </c>
     </row>
@@ -6315,7 +6310,7 @@
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="60">
+      <c r="K134" s="48">
         <v>38884</v>
       </c>
     </row>
@@ -6391,7 +6386,7 @@
       <c r="H137" s="39"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
-      <c r="K137" s="60">
+      <c r="K137" s="48">
         <v>38957</v>
       </c>
     </row>
@@ -6460,7 +6455,7 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="59" t="s">
+      <c r="A141" s="47" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="20"/>
@@ -6543,7 +6538,7 @@
       <c r="H144" s="39"/>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="60">
+      <c r="K144" s="48">
         <v>39171</v>
       </c>
     </row>
@@ -6744,7 +6739,7 @@
       <c r="K153" s="15"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="59" t="s">
+      <c r="A154" s="47" t="s">
         <v>101</v>
       </c>
       <c r="B154" s="15"/>
@@ -7026,7 +7021,7 @@
       <c r="K167" s="20"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="59" t="s">
+      <c r="A168" s="47" t="s">
         <v>105</v>
       </c>
       <c r="B168" s="20"/>
@@ -7402,7 +7397,7 @@
       <c r="K185" s="20"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="59" t="s">
+      <c r="A186" s="47" t="s">
         <v>114</v>
       </c>
       <c r="B186" s="20"/>
@@ -7742,7 +7737,7 @@
       <c r="K201" s="20"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="59" t="s">
+      <c r="A202" s="47" t="s">
         <v>122</v>
       </c>
       <c r="B202" s="20"/>
@@ -8086,7 +8081,7 @@
       <c r="K217" s="20"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="59" t="s">
+      <c r="A218" s="47" t="s">
         <v>132</v>
       </c>
       <c r="B218" s="20"/>
@@ -8273,7 +8268,7 @@
       <c r="H226" s="39"/>
       <c r="I226" s="9"/>
       <c r="J226" s="11"/>
-      <c r="K226" s="60">
+      <c r="K226" s="48">
         <v>41113</v>
       </c>
     </row>
@@ -8295,7 +8290,7 @@
       <c r="H227" s="39"/>
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
-      <c r="K227" s="60" t="s">
+      <c r="K227" s="48" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8315,7 +8310,7 @@
       <c r="H228" s="39"/>
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
-      <c r="K228" s="60" t="s">
+      <c r="K228" s="48" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8381,7 +8376,7 @@
       <c r="H231" s="39"/>
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
-      <c r="K231" s="60">
+      <c r="K231" s="48">
         <v>41204</v>
       </c>
     </row>
@@ -8430,7 +8425,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A234" s="59" t="s">
+      <c r="A234" s="47" t="s">
         <v>138</v>
       </c>
       <c r="B234" s="20"/>
@@ -8631,7 +8626,7 @@
       <c r="H242" s="39"/>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="60">
+      <c r="K242" s="48">
         <v>41516</v>
       </c>
     </row>
@@ -8697,7 +8692,7 @@
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="60">
+      <c r="K245" s="48">
         <v>41592</v>
       </c>
     </row>
@@ -8722,7 +8717,7 @@
       <c r="K246" s="20"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A247" s="59" t="s">
+      <c r="A247" s="47" t="s">
         <v>144</v>
       </c>
       <c r="B247" s="20"/>
@@ -8825,7 +8820,7 @@
       <c r="H251" s="39"/>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="60" t="s">
+      <c r="K251" s="48" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8996,7 +8991,7 @@
       <c r="K259" s="20"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A260" s="59" t="s">
+      <c r="A260" s="47" t="s">
         <v>148</v>
       </c>
       <c r="B260" s="20"/>
@@ -9185,7 +9180,7 @@
       <c r="H268" s="39"/>
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="60">
+      <c r="K268" s="48">
         <v>42230</v>
       </c>
     </row>
@@ -9251,7 +9246,7 @@
       <c r="H271" s="39"/>
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
-      <c r="K271" s="60">
+      <c r="K271" s="48">
         <v>42293</v>
       </c>
     </row>
@@ -9277,7 +9272,7 @@
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
-      <c r="K272" s="60">
+      <c r="K272" s="48">
         <v>42324</v>
       </c>
     </row>
@@ -9328,7 +9323,7 @@
       <c r="K274" s="20"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275" s="59" t="s">
+      <c r="A275" s="47" t="s">
         <v>152</v>
       </c>
       <c r="B275" s="20"/>
@@ -9606,7 +9601,7 @@
       <c r="K287" s="20"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288" s="59" t="s">
+      <c r="A288" s="47" t="s">
         <v>160</v>
       </c>
       <c r="B288" s="20"/>
@@ -9902,7 +9897,7 @@
       <c r="K301" s="20"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="59" t="s">
+      <c r="A302" s="47" t="s">
         <v>165</v>
       </c>
       <c r="B302" s="20"/>
@@ -10197,7 +10192,7 @@
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="60">
+      <c r="K315" s="48">
         <v>43433</v>
       </c>
     </row>
@@ -10222,7 +10217,7 @@
       <c r="K316" s="20"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317" s="59" t="s">
+      <c r="A317" s="47" t="s">
         <v>170</v>
       </c>
       <c r="B317" s="20"/>
@@ -10530,7 +10525,7 @@
       <c r="K331" s="20"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="59" t="s">
+      <c r="A332" s="47" t="s">
         <v>174</v>
       </c>
       <c r="B332" s="20"/>
@@ -10796,7 +10791,7 @@
       <c r="K344" s="20"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="59" t="s">
+      <c r="A345" s="47" t="s">
         <v>176</v>
       </c>
       <c r="B345" s="20"/>
@@ -11043,7 +11038,7 @@
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
-      <c r="K356" s="60">
+      <c r="K356" s="48">
         <v>44508</v>
       </c>
     </row>
@@ -11114,7 +11109,7 @@
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="59" t="s">
+      <c r="A360" s="47" t="s">
         <v>180</v>
       </c>
       <c r="B360" s="20"/>
@@ -11299,7 +11294,7 @@
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
-      <c r="K368" s="60">
+      <c r="K368" s="48">
         <v>44760</v>
       </c>
     </row>
@@ -11399,7 +11394,9 @@
       <c r="A373" s="40">
         <v>44866</v>
       </c>
-      <c r="B373" s="20"/>
+      <c r="B373" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C373" s="13">
         <v>1.25</v>
       </c>
@@ -11413,7 +11410,9 @@
       <c r="H373" s="39"/>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
-      <c r="K373" s="20"/>
+      <c r="K373" s="20" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
@@ -11436,7 +11435,7 @@
       <c r="K374" s="20"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A375" s="59" t="s">
+      <c r="A375" s="47" t="s">
         <v>187</v>
       </c>
       <c r="B375" s="20"/>
@@ -11713,17 +11712,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -11806,12 +11805,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/LERIO, ROSEMARIE.xlsx
+++ b/REGULAR/ACCOUNTING/LERIO, ROSEMARIE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1FA7F2-17D6-4906-BBEC-D402B47B516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E712E20A-429B-445E-91C4-B6F1C046F58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -3381,12 +3381,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K387"/>
+  <dimension ref="A2:N387"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A360" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B374" sqref="B374"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A366" activePane="bottomLeft"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="E375" sqref="E375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10952,7 +10952,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>44409</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>44440</v>
       </c>
@@ -10996,7 +10996,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>44470</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>49</v>
@@ -11042,7 +11042,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>44501</v>
       </c>
@@ -11062,7 +11062,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>44531</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>67</v>
@@ -11108,7 +11108,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" s="47" t="s">
         <v>180</v>
       </c>
@@ -11126,7 +11126,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44562</v>
       </c>
@@ -11145,8 +11145,12 @@
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N361" s="43">
+        <f>SUM(E9,I9)</f>
+        <v>711.68299999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44593</v>
       </c>
@@ -11166,7 +11170,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>44621</v>
       </c>
@@ -11186,7 +11190,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>44652</v>
       </c>
@@ -11210,7 +11214,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>62</v>
@@ -11232,7 +11236,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44682</v>
       </c>
@@ -11252,7 +11256,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44713</v>
       </c>
@@ -11272,7 +11276,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44743</v>
       </c>
